--- a/ESP32/Sensors characterization.xlsx
+++ b/ESP32/Sensors characterization.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Iván\Documents\Github\AgriculturaVertical\ESP32\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jrsla\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -95,7 +96,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -109,31 +110,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>ADC bin (n) vs Soil Moisture (%)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -160,7 +136,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -300,7 +276,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9956-4B15-8796-8AE52438CE62}"/>
             </c:ext>
@@ -314,11 +290,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1935713616"/>
-        <c:axId val="1935715248"/>
+        <c:axId val="1808967263"/>
+        <c:axId val="1808962687"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1935713616"/>
+        <c:axId val="1808967263"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -358,15 +334,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935715248"/>
+        <c:crossAx val="1808962687"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1935715248"/>
+        <c:axId val="1808962687"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -420,10 +396,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935713616"/>
+        <c:crossAx val="1808967263"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -461,7 +437,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -473,7 +449,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -513,7 +489,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-GT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -617,7 +593,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-1176-47FD-BEF3-774EC7C371C4}"/>
             </c:ext>
@@ -631,11 +607,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1935709264"/>
-        <c:axId val="1935707632"/>
+        <c:axId val="448717695"/>
+        <c:axId val="448718943"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1935709264"/>
+        <c:axId val="448717695"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -689,15 +665,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935707632"/>
+        <c:crossAx val="448718943"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1935707632"/>
+        <c:axId val="448718943"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -751,10 +727,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-GT"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1935709264"/>
+        <c:crossAx val="448717695"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -792,7 +768,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-GT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2245,8 +2221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
